--- a/BalanceSheet/HUBS_bal.xlsx
+++ b/BalanceSheet/HUBS_bal.xlsx
@@ -1658,19 +1658,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>627000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1233000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>342000.0</v>
+        <v>11000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1495000.0</v>
+        <v>11000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-2268000.0</v>
+        <v>13000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>14882000.0</v>
